--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema4d-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema4d-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6040246666666667</v>
+        <v>0.4841736666666667</v>
       </c>
       <c r="H2">
-        <v>1.812074</v>
+        <v>1.452521</v>
       </c>
       <c r="I2">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="J2">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.709791333333333</v>
+        <v>3.248861</v>
       </c>
       <c r="N2">
-        <v>11.129374</v>
+        <v>9.746582999999999</v>
       </c>
       <c r="O2">
-        <v>0.4283284425582907</v>
+        <v>0.3767295193213461</v>
       </c>
       <c r="P2">
-        <v>0.4283284425582907</v>
+        <v>0.376729519321346</v>
       </c>
       <c r="Q2">
-        <v>2.240805473519556</v>
+        <v>1.573012942860333</v>
       </c>
       <c r="R2">
-        <v>20.167249261676</v>
+        <v>14.157116485743</v>
       </c>
       <c r="S2">
-        <v>0.003167771257239938</v>
+        <v>0.001259275379236789</v>
       </c>
       <c r="T2">
-        <v>0.003167771257239938</v>
+        <v>0.001259275379236789</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6040246666666667</v>
+        <v>0.4841736666666667</v>
       </c>
       <c r="H3">
-        <v>1.812074</v>
+        <v>1.452521</v>
       </c>
       <c r="I3">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="J3">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.599001333333333</v>
+        <v>3.599001333333334</v>
       </c>
       <c r="N3">
         <v>10.797004</v>
       </c>
       <c r="O3">
-        <v>0.4155367505499981</v>
+        <v>0.417330886838049</v>
       </c>
       <c r="P3">
-        <v>0.4155367505499981</v>
+        <v>0.4173308868380489</v>
       </c>
       <c r="Q3">
-        <v>2.173885580699555</v>
+        <v>1.742541671898223</v>
       </c>
       <c r="R3">
-        <v>19.564970226296</v>
+        <v>15.682875047084</v>
       </c>
       <c r="S3">
-        <v>0.003073168260452442</v>
+        <v>0.001394991589023674</v>
       </c>
       <c r="T3">
-        <v>0.003073168260452442</v>
+        <v>0.001394991589023674</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,51 +664,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6040246666666667</v>
+        <v>0.4841736666666667</v>
       </c>
       <c r="H4">
-        <v>1.812074</v>
+        <v>1.452521</v>
       </c>
       <c r="I4">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="J4">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.352297666666667</v>
+        <v>0.02714433333333334</v>
       </c>
       <c r="N4">
-        <v>4.056893000000001</v>
+        <v>0.08143300000000001</v>
       </c>
       <c r="O4">
-        <v>0.1561348068917112</v>
+        <v>0.003147586692371591</v>
       </c>
       <c r="P4">
-        <v>0.1561348068917112</v>
+        <v>0.003147586692371591</v>
       </c>
       <c r="Q4">
-        <v>0.8168211473424445</v>
+        <v>0.01314257139922222</v>
       </c>
       <c r="R4">
-        <v>7.351390326082001</v>
+        <v>0.118283142593</v>
       </c>
       <c r="S4">
-        <v>0.001154719846695592</v>
+        <v>1.052128442936252E-05</v>
       </c>
       <c r="T4">
-        <v>0.001154719846695592</v>
+        <v>1.052128442936252E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,25 +717,25 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.123796</v>
+        <v>0.4841736666666667</v>
       </c>
       <c r="H5">
-        <v>3.371388</v>
+        <v>1.452521</v>
       </c>
       <c r="I5">
-        <v>0.0137597235174641</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="J5">
-        <v>0.0137597235174641</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.709791333333333</v>
+        <v>1.711959</v>
       </c>
       <c r="N5">
-        <v>11.129374</v>
+        <v>5.135877</v>
       </c>
       <c r="O5">
-        <v>0.4283284425582907</v>
+        <v>0.1985143381535413</v>
       </c>
       <c r="P5">
-        <v>0.4283284425582907</v>
+        <v>0.1985143381535413</v>
       </c>
       <c r="Q5">
-        <v>4.169048661234668</v>
+        <v>0.828885466213</v>
       </c>
       <c r="R5">
-        <v>37.52143795111201</v>
+        <v>7.459969195916999</v>
       </c>
       <c r="S5">
-        <v>0.005893680944268083</v>
+        <v>0.0006635641903309604</v>
       </c>
       <c r="T5">
-        <v>0.005893680944268083</v>
+        <v>0.0006635641903309601</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.123796</v>
+        <v>0.4841736666666667</v>
       </c>
       <c r="H6">
-        <v>3.371388</v>
+        <v>1.452521</v>
       </c>
       <c r="I6">
-        <v>0.0137597235174641</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="J6">
-        <v>0.0137597235174641</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>3.599001333333333</v>
+        <v>0.03689</v>
       </c>
       <c r="N6">
-        <v>10.797004</v>
+        <v>0.11067</v>
       </c>
       <c r="O6">
-        <v>0.4155367505499981</v>
+        <v>0.004277668994692127</v>
       </c>
       <c r="P6">
-        <v>0.4155367505499981</v>
+        <v>0.004277668994692126</v>
       </c>
       <c r="Q6">
-        <v>4.044543302394668</v>
+        <v>0.01786116656333333</v>
       </c>
       <c r="R6">
-        <v>36.40088972155201</v>
+        <v>0.16075049907</v>
       </c>
       <c r="S6">
-        <v>0.005717670798913422</v>
+        <v>1.42987553915188E-05</v>
       </c>
       <c r="T6">
-        <v>0.005717670798913422</v>
+        <v>1.429875539151879E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>3.371388</v>
       </c>
       <c r="I7">
-        <v>0.0137597235174641</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="J7">
-        <v>0.0137597235174641</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.352297666666667</v>
+        <v>3.248861</v>
       </c>
       <c r="N7">
-        <v>4.056893000000001</v>
+        <v>9.746582999999999</v>
       </c>
       <c r="O7">
-        <v>0.1561348068917112</v>
+        <v>0.3767295193213461</v>
       </c>
       <c r="P7">
-        <v>0.1561348068917112</v>
+        <v>0.376729519321346</v>
       </c>
       <c r="Q7">
-        <v>1.519706708609334</v>
+        <v>3.651056996356</v>
       </c>
       <c r="R7">
-        <v>13.677360377484</v>
+        <v>32.859512967204</v>
       </c>
       <c r="S7">
-        <v>0.002148371774282595</v>
+        <v>0.002922853371658214</v>
       </c>
       <c r="T7">
-        <v>0.002148371774282595</v>
+        <v>0.002922853371658213</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.13359466666667</v>
+        <v>1.123796</v>
       </c>
       <c r="H8">
-        <v>84.400784</v>
+        <v>3.371388</v>
       </c>
       <c r="I8">
-        <v>0.3444668642402499</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="J8">
-        <v>0.3444668642402499</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,43 +930,43 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.709791333333333</v>
+        <v>3.599001333333334</v>
       </c>
       <c r="N8">
-        <v>11.129374</v>
+        <v>10.797004</v>
       </c>
       <c r="O8">
-        <v>0.4283284425582907</v>
+        <v>0.417330886838049</v>
       </c>
       <c r="P8">
-        <v>0.4283284425582907</v>
+        <v>0.4173308868380489</v>
       </c>
       <c r="Q8">
-        <v>104.3697656699129</v>
+        <v>4.044543302394668</v>
       </c>
       <c r="R8">
-        <v>939.3278910292161</v>
+        <v>36.40088972155201</v>
       </c>
       <c r="S8">
-        <v>0.1475449554729644</v>
+        <v>0.003237858800895373</v>
       </c>
       <c r="T8">
-        <v>0.1475449554729644</v>
+        <v>0.003237858800895372</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -974,51 +974,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.13359466666667</v>
+        <v>1.123796</v>
       </c>
       <c r="H9">
-        <v>84.400784</v>
+        <v>3.371388</v>
       </c>
       <c r="I9">
-        <v>0.3444668642402499</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="J9">
-        <v>0.3444668642402499</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>3.599001333333333</v>
+        <v>0.02714433333333334</v>
       </c>
       <c r="N9">
-        <v>10.797004</v>
+        <v>0.08143300000000001</v>
       </c>
       <c r="O9">
-        <v>0.4155367505499981</v>
+        <v>0.003147586692371591</v>
       </c>
       <c r="P9">
-        <v>0.4155367505499981</v>
+        <v>0.003147586692371591</v>
       </c>
       <c r="Q9">
-        <v>101.2528447167929</v>
+        <v>0.03050469322266668</v>
       </c>
       <c r="R9">
-        <v>911.2756024511359</v>
+        <v>0.274542239004</v>
       </c>
       <c r="S9">
-        <v>0.1431386414385408</v>
+        <v>2.442052959629476E-05</v>
       </c>
       <c r="T9">
-        <v>0.1431386414385408</v>
+        <v>2.442052959629475E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.13359466666667</v>
+        <v>1.123796</v>
       </c>
       <c r="H10">
-        <v>84.400784</v>
+        <v>3.371388</v>
       </c>
       <c r="I10">
-        <v>0.3444668642402499</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="J10">
-        <v>0.3444668642402499</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.352297666666667</v>
+        <v>1.711959</v>
       </c>
       <c r="N10">
-        <v>4.056893000000001</v>
+        <v>5.135877</v>
       </c>
       <c r="O10">
-        <v>0.1561348068917112</v>
+        <v>0.1985143381535413</v>
       </c>
       <c r="P10">
-        <v>0.1561348068917112</v>
+        <v>0.1985143381535413</v>
       </c>
       <c r="Q10">
-        <v>38.04499442267912</v>
+        <v>1.923892676364001</v>
       </c>
       <c r="R10">
-        <v>342.4049498041121</v>
+        <v>17.315034087276</v>
       </c>
       <c r="S10">
-        <v>0.05378326732874473</v>
+        <v>0.001540172120411007</v>
       </c>
       <c r="T10">
-        <v>0.05378326732874473</v>
+        <v>0.001540172120411006</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,51 +1098,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.288857333333333</v>
+        <v>1.123796</v>
       </c>
       <c r="H11">
-        <v>6.866572</v>
+        <v>3.371388</v>
       </c>
       <c r="I11">
-        <v>0.0280246985018516</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="J11">
-        <v>0.02802469850185161</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>3.709791333333333</v>
+        <v>0.03689</v>
       </c>
       <c r="N11">
-        <v>11.129374</v>
+        <v>0.11067</v>
       </c>
       <c r="O11">
-        <v>0.4283284425582907</v>
+        <v>0.004277668994692127</v>
       </c>
       <c r="P11">
-        <v>0.4283284425582907</v>
+        <v>0.004277668994692126</v>
       </c>
       <c r="Q11">
-        <v>8.491183098436444</v>
+        <v>0.04145683444000001</v>
       </c>
       <c r="R11">
-        <v>76.42064788592801</v>
+        <v>0.37311150996</v>
       </c>
       <c r="S11">
-        <v>0.01200377546246376</v>
+        <v>3.318826532759373E-05</v>
       </c>
       <c r="T11">
-        <v>0.01200377546246376</v>
+        <v>3.318826532759372E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.288857333333333</v>
+        <v>85.95243833333332</v>
       </c>
       <c r="H12">
-        <v>6.866572</v>
+        <v>257.857315</v>
       </c>
       <c r="I12">
-        <v>0.0280246985018516</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="J12">
-        <v>0.02802469850185161</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,33 +1178,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.599001333333333</v>
+        <v>3.248861</v>
       </c>
       <c r="N12">
-        <v>10.797004</v>
+        <v>9.746582999999999</v>
       </c>
       <c r="O12">
-        <v>0.4155367505499981</v>
+        <v>0.3767295193213461</v>
       </c>
       <c r="P12">
-        <v>0.4155367505499981</v>
+        <v>0.376729519321346</v>
       </c>
       <c r="Q12">
-        <v>8.237600594476444</v>
+        <v>279.2475247560716</v>
       </c>
       <c r="R12">
-        <v>74.138405350288</v>
+        <v>2513.227722804645</v>
       </c>
       <c r="S12">
-        <v>0.01164529215060281</v>
+        <v>0.2235515824801191</v>
       </c>
       <c r="T12">
-        <v>0.01164529215060281</v>
+        <v>0.2235515824801191</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.288857333333333</v>
+        <v>85.95243833333332</v>
       </c>
       <c r="H13">
-        <v>6.866572</v>
+        <v>257.857315</v>
       </c>
       <c r="I13">
-        <v>0.0280246985018516</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="J13">
-        <v>0.02802469850185161</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.352297666666667</v>
+        <v>3.599001333333334</v>
       </c>
       <c r="N13">
-        <v>4.056893000000001</v>
+        <v>10.797004</v>
       </c>
       <c r="O13">
-        <v>0.1561348068917112</v>
+        <v>0.417330886838049</v>
       </c>
       <c r="P13">
-        <v>0.1561348068917112</v>
+        <v>0.4173308868380489</v>
       </c>
       <c r="Q13">
-        <v>3.095216431199556</v>
+        <v>309.3429401649178</v>
       </c>
       <c r="R13">
-        <v>27.856947880796</v>
+        <v>2784.08646148426</v>
       </c>
       <c r="S13">
-        <v>0.004375630888785028</v>
+        <v>0.2476444647569488</v>
       </c>
       <c r="T13">
-        <v>0.004375630888785029</v>
+        <v>0.2476444647569488</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,51 +1284,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>49.52258933333334</v>
+        <v>85.95243833333332</v>
       </c>
       <c r="H14">
-        <v>148.567768</v>
+        <v>257.857315</v>
       </c>
       <c r="I14">
-        <v>0.6063530543760464</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="J14">
-        <v>0.6063530543760464</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>3.709791333333333</v>
+        <v>0.02714433333333334</v>
       </c>
       <c r="N14">
-        <v>11.129374</v>
+        <v>0.08143300000000001</v>
       </c>
       <c r="O14">
-        <v>0.4283284425582907</v>
+        <v>0.003147586692371591</v>
       </c>
       <c r="P14">
-        <v>0.4283284425582907</v>
+        <v>0.003147586692371591</v>
       </c>
       <c r="Q14">
-        <v>183.7184727130258</v>
+        <v>2.333121636932778</v>
       </c>
       <c r="R14">
-        <v>1653.466254417232</v>
+        <v>20.998094732395</v>
       </c>
       <c r="S14">
-        <v>0.2597182594213545</v>
+        <v>0.001867780330409492</v>
       </c>
       <c r="T14">
-        <v>0.2597182594213545</v>
+        <v>0.001867780330409492</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,7 +1337,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>49.52258933333334</v>
+        <v>85.95243833333332</v>
       </c>
       <c r="H15">
-        <v>148.567768</v>
+        <v>257.857315</v>
       </c>
       <c r="I15">
-        <v>0.6063530543760464</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="J15">
-        <v>0.6063530543760464</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,90 +1364,710 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.599001333333333</v>
+        <v>1.711959</v>
       </c>
       <c r="N15">
-        <v>10.797004</v>
+        <v>5.135877</v>
       </c>
       <c r="O15">
-        <v>0.4155367505499981</v>
+        <v>0.1985143381535413</v>
       </c>
       <c r="P15">
-        <v>0.4155367505499981</v>
+        <v>0.1985143381535413</v>
       </c>
       <c r="Q15">
-        <v>178.2318650407858</v>
+        <v>147.147050376695</v>
       </c>
       <c r="R15">
-        <v>1604.086785367072</v>
+        <v>1324.323453390255</v>
       </c>
       <c r="S15">
-        <v>0.2519619779014886</v>
+        <v>0.1177985588152532</v>
       </c>
       <c r="T15">
-        <v>0.2519619779014886</v>
+        <v>0.1177985588152531</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>85.95243833333332</v>
+      </c>
+      <c r="H16">
+        <v>257.857315</v>
+      </c>
+      <c r="I16">
+        <v>0.5934007584084009</v>
+      </c>
+      <c r="J16">
+        <v>0.5934007584084009</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.03689</v>
+      </c>
+      <c r="N16">
+        <v>0.11067</v>
+      </c>
+      <c r="O16">
+        <v>0.004277668994692127</v>
+      </c>
+      <c r="P16">
+        <v>0.004277668994692126</v>
+      </c>
+      <c r="Q16">
+        <v>3.170785450116666</v>
+      </c>
+      <c r="R16">
+        <v>28.53706905104999</v>
+      </c>
+      <c r="S16">
+        <v>0.00253837202567041</v>
+      </c>
+      <c r="T16">
+        <v>0.002538372025670409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>49.52258933333334</v>
-      </c>
-      <c r="H16">
-        <v>148.567768</v>
-      </c>
-      <c r="I16">
-        <v>0.6063530543760464</v>
-      </c>
-      <c r="J16">
-        <v>0.6063530543760464</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.352297666666667</v>
-      </c>
-      <c r="N16">
-        <v>4.056893000000001</v>
-      </c>
-      <c r="O16">
-        <v>0.1561348068917112</v>
-      </c>
-      <c r="P16">
-        <v>0.1561348068917112</v>
-      </c>
-      <c r="Q16">
-        <v>66.96928200275823</v>
-      </c>
-      <c r="R16">
-        <v>602.7235380248241</v>
-      </c>
-      <c r="S16">
-        <v>0.09467281705320327</v>
-      </c>
-      <c r="T16">
-        <v>0.09467281705320327</v>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.941884333333334</v>
+      </c>
+      <c r="H17">
+        <v>5.825653000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.01340643335413687</v>
+      </c>
+      <c r="J17">
+        <v>0.01340643335413687</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.248861</v>
+      </c>
+      <c r="N17">
+        <v>9.746582999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.3767295193213461</v>
+      </c>
+      <c r="P17">
+        <v>0.376729519321346</v>
+      </c>
+      <c r="Q17">
+        <v>6.308912277077667</v>
+      </c>
+      <c r="R17">
+        <v>56.780210493699</v>
+      </c>
+      <c r="S17">
+        <v>0.005050599193317644</v>
+      </c>
+      <c r="T17">
+        <v>0.005050599193317643</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.941884333333334</v>
+      </c>
+      <c r="H18">
+        <v>5.825653000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.01340643335413687</v>
+      </c>
+      <c r="J18">
+        <v>0.01340643335413687</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.599001333333334</v>
+      </c>
+      <c r="N18">
+        <v>10.797004</v>
+      </c>
+      <c r="O18">
+        <v>0.417330886838049</v>
+      </c>
+      <c r="P18">
+        <v>0.4173308868380489</v>
+      </c>
+      <c r="Q18">
+        <v>6.988844304845779</v>
+      </c>
+      <c r="R18">
+        <v>62.89959874361202</v>
+      </c>
+      <c r="S18">
+        <v>0.005594918721017138</v>
+      </c>
+      <c r="T18">
+        <v>0.005594918721017138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.941884333333334</v>
+      </c>
+      <c r="H19">
+        <v>5.825653000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.01340643335413687</v>
+      </c>
+      <c r="J19">
+        <v>0.01340643335413687</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.02714433333333334</v>
+      </c>
+      <c r="N19">
+        <v>0.08143300000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.003147586692371591</v>
+      </c>
+      <c r="P19">
+        <v>0.003147586692371591</v>
+      </c>
+      <c r="Q19">
+        <v>0.05271115563877779</v>
+      </c>
+      <c r="R19">
+        <v>0.4744004007490001</v>
+      </c>
+      <c r="S19">
+        <v>4.219791121764785E-05</v>
+      </c>
+      <c r="T19">
+        <v>4.219791121764783E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.941884333333334</v>
+      </c>
+      <c r="H20">
+        <v>5.825653000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.01340643335413687</v>
+      </c>
+      <c r="J20">
+        <v>0.01340643335413687</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.711959</v>
+      </c>
+      <c r="N20">
+        <v>5.135877</v>
+      </c>
+      <c r="O20">
+        <v>0.1985143381535413</v>
+      </c>
+      <c r="P20">
+        <v>0.1985143381535413</v>
+      </c>
+      <c r="Q20">
+        <v>3.324426361409</v>
+      </c>
+      <c r="R20">
+        <v>29.919837252681</v>
+      </c>
+      <c r="S20">
+        <v>0.002661369244296042</v>
+      </c>
+      <c r="T20">
+        <v>0.002661369244296041</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.941884333333334</v>
+      </c>
+      <c r="H21">
+        <v>5.825653000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.01340643335413687</v>
+      </c>
+      <c r="J21">
+        <v>0.01340643335413687</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.03689</v>
+      </c>
+      <c r="N21">
+        <v>0.11067</v>
+      </c>
+      <c r="O21">
+        <v>0.004277668994692127</v>
+      </c>
+      <c r="P21">
+        <v>0.004277668994692126</v>
+      </c>
+      <c r="Q21">
+        <v>0.07163611305666667</v>
+      </c>
+      <c r="R21">
+        <v>0.64472501751</v>
+      </c>
+      <c r="S21">
+        <v>5.734828428839766E-05</v>
+      </c>
+      <c r="T21">
+        <v>5.734828428839764E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>55.34490766666666</v>
+      </c>
+      <c r="H22">
+        <v>166.034723</v>
+      </c>
+      <c r="I22">
+        <v>0.3820916639511615</v>
+      </c>
+      <c r="J22">
+        <v>0.3820916639511614</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.248861</v>
+      </c>
+      <c r="N22">
+        <v>9.746582999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.3767295193213461</v>
+      </c>
+      <c r="P22">
+        <v>0.376729519321346</v>
+      </c>
+      <c r="Q22">
+        <v>179.8079120668343</v>
+      </c>
+      <c r="R22">
+        <v>1618.271208601509</v>
+      </c>
+      <c r="S22">
+        <v>0.1439452088970144</v>
+      </c>
+      <c r="T22">
+        <v>0.1439452088970143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>55.34490766666666</v>
+      </c>
+      <c r="H23">
+        <v>166.034723</v>
+      </c>
+      <c r="I23">
+        <v>0.3820916639511615</v>
+      </c>
+      <c r="J23">
+        <v>0.3820916639511614</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.599001333333334</v>
+      </c>
+      <c r="N23">
+        <v>10.797004</v>
+      </c>
+      <c r="O23">
+        <v>0.417330886838049</v>
+      </c>
+      <c r="P23">
+        <v>0.4173308868380489</v>
+      </c>
+      <c r="Q23">
+        <v>199.1863964855436</v>
+      </c>
+      <c r="R23">
+        <v>1792.677568369892</v>
+      </c>
+      <c r="S23">
+        <v>0.159458652970164</v>
+      </c>
+      <c r="T23">
+        <v>0.159458652970164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>55.34490766666666</v>
+      </c>
+      <c r="H24">
+        <v>166.034723</v>
+      </c>
+      <c r="I24">
+        <v>0.3820916639511615</v>
+      </c>
+      <c r="J24">
+        <v>0.3820916639511614</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.02714433333333334</v>
+      </c>
+      <c r="N24">
+        <v>0.08143300000000001</v>
+      </c>
+      <c r="O24">
+        <v>0.003147586692371591</v>
+      </c>
+      <c r="P24">
+        <v>0.003147586692371591</v>
+      </c>
+      <c r="Q24">
+        <v>1.502300622006556</v>
+      </c>
+      <c r="R24">
+        <v>13.520705598059</v>
+      </c>
+      <c r="S24">
+        <v>0.001202666636718794</v>
+      </c>
+      <c r="T24">
+        <v>0.001202666636718793</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>55.34490766666666</v>
+      </c>
+      <c r="H25">
+        <v>166.034723</v>
+      </c>
+      <c r="I25">
+        <v>0.3820916639511615</v>
+      </c>
+      <c r="J25">
+        <v>0.3820916639511614</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.711959</v>
+      </c>
+      <c r="N25">
+        <v>5.135877</v>
+      </c>
+      <c r="O25">
+        <v>0.1985143381535413</v>
+      </c>
+      <c r="P25">
+        <v>0.1985143381535413</v>
+      </c>
+      <c r="Q25">
+        <v>94.74821278411899</v>
+      </c>
+      <c r="R25">
+        <v>852.7339150570709</v>
+      </c>
+      <c r="S25">
+        <v>0.07585067378325014</v>
+      </c>
+      <c r="T25">
+        <v>0.07585067378325011</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>55.34490766666666</v>
+      </c>
+      <c r="H26">
+        <v>166.034723</v>
+      </c>
+      <c r="I26">
+        <v>0.3820916639511615</v>
+      </c>
+      <c r="J26">
+        <v>0.3820916639511614</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.03689</v>
+      </c>
+      <c r="N26">
+        <v>0.11067</v>
+      </c>
+      <c r="O26">
+        <v>0.004277668994692127</v>
+      </c>
+      <c r="P26">
+        <v>0.004277668994692126</v>
+      </c>
+      <c r="Q26">
+        <v>2.041673643823333</v>
+      </c>
+      <c r="R26">
+        <v>18.37506279441</v>
+      </c>
+      <c r="S26">
+        <v>0.001634461664014207</v>
+      </c>
+      <c r="T26">
+        <v>0.001634461664014206</v>
       </c>
     </row>
   </sheetData>
